--- a/articles_figure1.xlsx
+++ b/articles_figure1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45d06715da5a8b26/Dokumente/Charite/Arbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{680BC875-3F7A-4F8B-B1ED-FA96BC8BC6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{680BC875-3F7A-4F8B-B1ED-FA96BC8BC6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F81D66DB-7B5C-4A83-9320-6D6FD5D8FCCA}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="780" windowWidth="14400" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,8 +31,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B9781274-3B21-49D5-B5DD-848555BCF10D}</author>
+  </authors>
+  <commentList>
+    <comment ref="B510" authorId="0" shapeId="0" xr:uid="{B9781274-3B21-49D5-B5DD-848555BCF10D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In Rayyan wird kein Datum erwähnt, über diesen Link habe ich ein Datum gefunden: https://link.springer.com/article/10.1007/s00521-021-06200-6</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="520">
   <si>
     <t>title</t>
   </si>
@@ -278,9 +296,6 @@
   </si>
   <si>
     <t>Mobile application for patients with rheumatoid arthritis (RA) as a supporting tool for disease activity monitoring: Its usability and interoperability</t>
-  </si>
-  <si>
-    <t>No Title</t>
   </si>
   <si>
     <t>Semantically Interoperable Oncology Information System - Oncology 4.0</t>
@@ -1737,7 +1752,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1917,6 +1932,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2078,8 +2099,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2125,7 +2147,18 @@
     <cellStyle name="Warnender Text" xfId="40" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="41" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2136,6 +2169,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mayer, Paula Josephine" id="{6279EC74-9F5B-463F-857C-BB2C9DC68C70}" userId="S::paula-josephine.mayer@charite.de::57685cbc-7a87-4a20-8911-56b0b6aca5a7" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2433,17 +2472,25 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B510" dT="2022-04-19T08:42:02.50" personId="{6279EC74-9F5B-463F-857C-BB2C9DC68C70}" id="{B9781274-3B21-49D5-B5DD-848555BCF10D}">
+    <text>In Rayyan wird kein Datum erwähnt, über diesen Link habe ich ein Datum gefunden: https://link.springer.com/article/10.1007/s00521-021-06200-6</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B522"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3098,13 +3145,16 @@
       <c r="A82" t="s">
         <v>82</v>
       </c>
+      <c r="B82">
+        <v>2020</v>
+      </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
       <c r="B83">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3112,7 +3162,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3120,7 +3170,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3128,7 +3178,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3136,60 +3186,60 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>2018</v>
@@ -3197,143 +3247,143 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>2018</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>2019</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>2017</v>
@@ -3341,23 +3391,23 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>2021</v>
@@ -3365,47 +3415,47 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
-        <v>2014</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>2021</v>
@@ -3413,223 +3463,223 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>2019</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>2015</v>
@@ -3637,49 +3687,49 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>153</v>
-      </c>
-      <c r="B154">
-        <v>2016</v>
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2015</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>2017</v>
       </c>
     </row>
@@ -3688,20 +3738,20 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>2019</v>
@@ -3709,15 +3759,15 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>2019</v>
@@ -3725,55 +3775,55 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>2018</v>
@@ -3781,47 +3831,47 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>2021</v>
@@ -3829,15 +3879,15 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>2021</v>
@@ -3845,7 +3895,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>2019</v>
@@ -3853,7 +3903,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>2021</v>
@@ -3861,47 +3911,47 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>2021</v>
@@ -3909,15 +3959,15 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>2021</v>
@@ -3925,31 +3975,31 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>2019</v>
@@ -3957,143 +4007,143 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207">
         <v>2021</v>
@@ -4101,7 +4151,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208">
         <v>2021</v>
@@ -4109,7 +4159,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>2021</v>
@@ -4117,15 +4167,15 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211">
         <v>2021</v>
@@ -4133,15 +4183,15 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213">
         <v>2021</v>
@@ -4149,15 +4199,15 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215">
         <v>2021</v>
@@ -4165,39 +4215,39 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220">
         <v>2021</v>
@@ -4205,7 +4255,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>2020</v>
@@ -4213,7 +4263,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>2021</v>
@@ -4221,47 +4271,47 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>2019</v>
@@ -4269,23 +4319,23 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>2020</v>
@@ -4293,31 +4343,31 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>2021</v>
@@ -4325,15 +4375,15 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237">
         <v>2021</v>
@@ -4341,39 +4391,39 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242">
         <v>2021</v>
@@ -4381,15 +4431,15 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244">
         <v>2021</v>
@@ -4397,95 +4447,95 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256">
         <v>2019</v>
@@ -4493,7 +4543,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257">
         <v>2021</v>
@@ -4501,31 +4551,31 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261">
         <v>2019</v>
@@ -4533,116 +4583,119 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>2021</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276">
         <v>2021</v>
@@ -4650,23 +4703,23 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279">
         <v>2021</v>
@@ -4674,31 +4727,31 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283">
         <v>2019</v>
@@ -4706,15 +4759,15 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285">
         <v>2019</v>
@@ -4722,103 +4775,103 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298">
         <v>2020</v>
@@ -4826,7 +4879,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299">
         <v>2017</v>
@@ -4834,135 +4887,135 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B301">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B302">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B303">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B304">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B305">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B306">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B307">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B308">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B310">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B311">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B312">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B313">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B314">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B315">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B316">
         <v>2020</v>
@@ -4970,63 +5023,63 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B317">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B318">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B319">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B320">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B321">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B322">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B323">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B324">
         <v>2020</v>
@@ -5034,7 +5087,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B325">
         <v>2021</v>
@@ -5042,7 +5095,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B326">
         <v>2020</v>
@@ -5050,7 +5103,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B327">
         <v>2021</v>
@@ -5058,23 +5111,23 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B328">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B330">
         <v>2019</v>
@@ -5082,31 +5135,31 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B331">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B332">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B333">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B334">
         <v>2021</v>
@@ -5114,15 +5167,15 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B335">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B336">
         <v>2021</v>
@@ -5130,23 +5183,23 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B337">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B338">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B339">
         <v>2018</v>
@@ -5154,39 +5207,39 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B340">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B341">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B342">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B343">
-        <v>2022</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B344">
         <v>2016</v>
@@ -5194,55 +5247,55 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B345">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B346">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B347">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B348">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B349">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B350">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B351">
         <v>2019</v>
@@ -5250,79 +5303,79 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B352">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B353">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B354">
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B355">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B356">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B357">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B358">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B359">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B360">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B361">
         <v>2021</v>
@@ -5330,7 +5383,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B362">
         <v>2018</v>
@@ -5338,135 +5391,135 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B363">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B364">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B365">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B366">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B367">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B368">
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B369">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B370">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B371">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B372">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B373">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B374">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B375">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B376">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B377">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B378">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B379">
         <v>2018</v>
@@ -5474,23 +5527,23 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B380">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B381">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B382">
         <v>2021</v>
@@ -5498,47 +5551,47 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B383">
-        <v>2016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B384">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B385">
-        <v>2022</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B386">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B387">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B388">
         <v>2021</v>
@@ -5546,95 +5599,95 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B389">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B390">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B391">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B392">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B393">
-        <v>2019</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B394">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B395">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B396">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B397">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B398">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B399">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B400">
         <v>2021</v>
@@ -5642,7 +5695,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B401">
         <v>2020</v>
@@ -5650,15 +5703,15 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B402">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B403">
         <v>2020</v>
@@ -5666,7 +5719,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B404">
         <v>2020</v>
@@ -5674,47 +5727,47 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B405">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B406">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B407">
-        <v>2022</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B408">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B409">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B410">
         <v>2021</v>
@@ -5722,55 +5775,55 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B411">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B412">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B413">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B414">
-        <v>2016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B415">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B416">
-        <v>2022</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B417">
         <v>2021</v>
@@ -5778,7 +5831,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B418">
         <v>2018</v>
@@ -5786,71 +5839,71 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B419">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B420">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B421">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B422">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B423">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B424">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B425">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B426">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B427">
         <v>2019</v>
@@ -5858,15 +5911,15 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B428">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B429">
         <v>2019</v>
@@ -5874,111 +5927,111 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B430">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B431">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B432">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B433">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B434">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B435">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B436">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B437">
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B438">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B439">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B440">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B441">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B442">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B443">
         <v>2020</v>
@@ -5986,31 +6039,31 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B444">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B445">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B446">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B447">
         <v>2021</v>
@@ -6018,71 +6071,71 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B448">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B449">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B450">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B451">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B452">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B453">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B454">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B455">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B456">
         <v>2020</v>
@@ -6090,15 +6143,15 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B457">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B458">
         <v>2020</v>
@@ -6106,7 +6159,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B459">
         <v>2020</v>
@@ -6114,15 +6167,15 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B460">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B461">
         <v>2020</v>
@@ -6130,7 +6183,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B462">
         <v>2019</v>
@@ -6138,7 +6191,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B463">
         <v>2020</v>
@@ -6146,39 +6199,39 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B464">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B465">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B466">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B467">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B468">
         <v>2019</v>
@@ -6186,71 +6239,71 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B469">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B470">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B471">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B472">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B473">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B474">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B475">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B476">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B477">
         <v>2020</v>
@@ -6258,23 +6311,23 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B478">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B479">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B480">
         <v>2019</v>
@@ -6282,39 +6335,39 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B481">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B482">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B483">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B484">
-        <v>2020</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B485">
         <v>2015</v>
@@ -6322,52 +6375,55 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B486">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B487">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>2014</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B489">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B490">
-        <v>2014</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B491">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B492">
         <v>2020</v>
@@ -6375,23 +6431,23 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B493">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B494">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B495">
         <v>2020</v>
@@ -6399,7 +6455,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B496">
         <v>2021</v>
@@ -6407,7 +6463,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B497">
         <v>2020</v>
@@ -6415,31 +6471,31 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B498">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B499">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B500">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B501">
         <v>2018</v>
@@ -6447,31 +6503,31 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B502">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B503">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B504">
-        <v>2016</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B505">
         <v>2017</v>
@@ -6479,7 +6535,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B506">
         <v>2020</v>
@@ -6487,15 +6543,15 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B507">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B508">
         <v>2020</v>
@@ -6503,7 +6559,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B509">
         <v>2021</v>
@@ -6511,44 +6567,47 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B510">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B511">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>510</v>
+        <v>511</v>
+      </c>
+      <c r="B512">
+        <v>2021</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B513">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B514">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B515">
         <v>2021</v>
@@ -6556,7 +6615,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B516">
         <v>2019</v>
@@ -6564,15 +6623,15 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B517">
-        <v>2021</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B518">
         <v>2019</v>
@@ -6580,57 +6639,30 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B519">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B520">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2">
-      <c r="A521" t="s">
-        <v>519</v>
-      </c>
-      <c r="B521">
         <v>2018</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
-      <c r="A522" t="s">
-        <v>520</v>
-      </c>
-      <c r="B522">
-        <v>2018</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100446366B6115821498F44ABDA06810297" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="38ce4129d48cc844868c5dc9fc23f667">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e3281b33-5e35-47b8-941f-e4cf108953ac" xmlns:ns3="1d551d69-6617-46b6-ad2e-6110e151f9ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fe62d026e0f6aec56c04baa81897623" ns2:_="" ns3:_="">
     <xsd:import namespace="e3281b33-5e35-47b8-941f-e4cf108953ac"/>
@@ -6853,8 +6885,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C140E07A-7B46-4B99-B1C5-76A1B9505D23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5BF3EE-6960-4D48-B836-7754661E4713}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6862,5 +6909,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5BF3EE-6960-4D48-B836-7754661E4713}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C140E07A-7B46-4B99-B1C5-76A1B9505D23}"/>
 </file>